--- a/output_data/charts/1600000US3967440.xlsx
+++ b/output_data/charts/1600000US3967440.xlsx
@@ -141,11 +141,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -175,16 +187,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.922231067767937</c:v>
+                  <c:v>5.890304176203271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.332162348660687</c:v>
+                  <c:v>5.519572172385672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.877363965063163</c:v>
+                  <c:v>5.765768446739179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.973927810799148</c:v>
+                  <c:v>7.335848216150003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -207,7 +219,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -222,7 +236,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7.671320591879063"/>
+          <c:max val="9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -234,7 +248,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -244,6 +260,37 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="33333">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="33333">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="44444">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="44444">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="55555">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="55555">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -265,10 +312,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -597,7 +644,7 @@
         <v>2016</v>
       </c>
       <c r="B2" s="1">
-        <v>5.922231067767937</v>
+        <v>5.890304176203271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -605,7 +652,7 @@
         <v>2017</v>
       </c>
       <c r="B3" s="1">
-        <v>5.332162348660687</v>
+        <v>5.519572172385672</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -613,7 +660,7 @@
         <v>2019</v>
       </c>
       <c r="B4" s="1">
-        <v>5.877363965063163</v>
+        <v>5.765768446739179</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -621,7 +668,7 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
-        <v>6.973927810799148</v>
+        <v>7.335848216150003</v>
       </c>
     </row>
   </sheetData>
